--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,13 +428,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -442,7 +442,7 @@
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="4" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -520,6 +520,1226 @@
         <is>
           <t>min</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Booz</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Nate Ament</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CDL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ja'Kobi Gillespie</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CDL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Felix Okpara</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CDL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Denzel Aberdeen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clay</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Collin Chandler</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Otega Oweh</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Jaylen Carey</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Malachi Moreno</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>J.P. Estrella</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mouhamed Dioubate</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Jasper Johnson</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>DeWayne Brown II</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Amari Evans</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Andrija Jelavić</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Bishop Boswell</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Brandon Garrison</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Amaree Abram</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Troy Henderson</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Kam Williams</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>6:49 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +1753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +1783,84 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CDL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Booz</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Hal</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Clay</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,7 +431,7 @@
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
@@ -555,17 +555,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>9:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -591,7 +591,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -601,47 +601,47 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ja'Kobi Gillespie</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>0:59 - 1st Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -652,7 +652,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -662,35 +662,35 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>0:59 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -718,12 +718,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Felix Okpara</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -738,32 +738,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>9:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -774,7 +774,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -799,32 +799,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>9:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -835,22 +835,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -860,20 +860,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>9:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -896,7 +896,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -906,32 +906,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>0:59 - 1st Half</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -957,7 +957,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -967,44 +967,44 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>0:59 - 1st Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>11</v>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1028,12 +1028,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1043,32 +1043,32 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>9:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1089,38 +1089,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>0:59 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1150,47 +1150,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>0:59 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1211,47 +1211,47 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>0:59 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -1262,22 +1262,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1287,32 +1287,32 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>9:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="n">
-        <v>3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Andrija Jelavić</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>0:59 - 1st Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1394,33 +1394,33 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>0:59 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1470,20 +1470,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>9:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -1506,57 +1506,57 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>0:59 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1567,57 +1567,57 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>0:59 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -1628,17 +1628,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Kam Williams</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1653,32 +1653,32 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3:51 - 1st Half</t>
+          <t>9:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -1689,57 +1689,1094 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>J.P. Estrella</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>9:32 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mohamed Wague</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ALA@OU</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0:59 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Mouhamed Dioubate</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>9:32 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Tar</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tae Davis</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ALA@OU</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0:59 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>11</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Tar</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Aiden Sherrell</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ALA@OU</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0:59 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>Undrafted</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Jasper Johnson</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>9:32 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>14</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>DeWayne Brown II</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>9:32 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Amari Evans</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>9:32 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Andrija Jelavić</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>9:32 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Brandon Garrison</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>9:32 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Amaree Abram</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>9:32 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Bishop Boswell</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>9:32 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Kam Williams</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>9:32 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Noah Williamson</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ALA@OU</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0:59 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Ethan Burg</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>9:32 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>Trent Noah</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>UK@TENN</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>3:51 - 1st Half</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>9:32 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>-1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Troy Henderson</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>9:32 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ALA@OU</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0:59 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1753,7 +2790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1790,7 +2827,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1799,40 +2836,40 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1842,22 +2879,35 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Clay</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Hal</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C8" t="n">
         <v>1</v>
       </c>
     </row>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -555,17 +555,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>0:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -616,20 +616,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0:59 - 1st Half</t>
+          <t>13:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -657,40 +657,40 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0:59 - 1st Half</t>
+          <t>12:04 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -713,57 +713,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ja'Kobi Gillespie</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>13:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -779,17 +779,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -799,32 +799,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>0:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -840,52 +840,52 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Felix Okpara</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>12:04 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -906,38 +906,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0:59 - 1st Half</t>
+          <t>0:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -957,42 +957,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0:59 - 1st Half</t>
+          <t>0:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1001,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1028,47 +1028,47 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>12:04 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1104,20 +1104,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0:59 - 1st Half</t>
+          <t>13:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -1145,52 +1145,52 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0:59 - 1st Half</t>
+          <t>12:04 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1206,12 +1206,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0:59 - 1st Half</t>
+          <t>13:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1262,17 +1262,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1287,32 +1287,32 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>0:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1348,14 +1348,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0:59 - 1st Half</t>
+          <t>13:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
@@ -1364,16 +1364,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1409,20 +1409,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0:59 - 1st Half</t>
+          <t>13:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1455,47 +1455,47 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>13:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1516,22 +1516,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0:59 - 1st Half</t>
+          <t>12:04 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1544,19 +1544,19 @@
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1577,47 +1577,47 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0:59 - 1st Half</t>
+          <t>0:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1638,47 +1638,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>12:04 - 1st Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1699,32 +1699,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>13:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -1750,17 +1750,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1775,32 +1775,32 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0:59 - 1st Half</t>
+          <t>13:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
+        <v>9</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>3</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1821,12 +1821,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1836,32 +1836,32 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>0:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1897,23 +1897,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0:59 - 1st Half</t>
+          <t>13:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1958,32 +1958,32 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0:59 - 1st Half</t>
+          <t>13:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1994,17 +1994,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2019,17 +2019,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>0:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
@@ -2038,13 +2038,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -2055,57 +2055,57 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>12:04 - 1st Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2141,32 +2141,32 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>0:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2187,47 +2187,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Andrija Jelavić</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>12:04 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>5</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -2238,57 +2238,57 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>13:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
+        <v>8</v>
+      </c>
+      <c r="I30" t="n">
         <v>4</v>
       </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -2299,45 +2299,45 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>12:04 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2346,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2370,12 +2370,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2385,32 +2385,32 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>0:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -2421,57 +2421,57 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Kam Williams</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>13:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -2482,22 +2482,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2507,17 +2507,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0:59 - 1st Half</t>
+          <t>13:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
@@ -2543,57 +2543,57 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>12:04 - 1st Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2614,26 +2614,26 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>12:04 - 1st Half</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -2675,12 +2675,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>9:32 - 2nd Half</t>
+          <t>0:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -2736,47 +2736,962 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>DeWayne Brown II</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0:02 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>11</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Amari Evans</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0:02 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>AK Okereke</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>FLA@VAN</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>12:04 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Andrija Jelavić</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0:02 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Brandon Garrison</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0:02 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Isaiah Brown</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>FLA@VAN</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>12:04 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Amaree Abram</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0:02 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Bishop Boswell</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0:02 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Tyler Harris</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>FLA@VAN</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>12:04 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Urban Klavzar</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>FLA@VAN</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>12:04 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Kam Williams</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0:02 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>London Jemison</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>ALA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>ALA@OU</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0:59 - 1st Half</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>13:25 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Noah Williamson</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ALA@OU</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>13:25 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Ethan Burg</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0:02 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0:02 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Troy Henderson</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0:02 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
         <v>-2</v>
       </c>
-      <c r="I38" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>7</v>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2823,14 +3738,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2840,20 +3755,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -2866,49 +3781,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
         <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -616,17 +616,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11:51 - 2nd Half</t>
+          <t>8:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11:02 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -738,20 +738,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11:51 - 2nd Half</t>
+          <t>8:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="n">
         <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -860,20 +860,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11:02 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11:02 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>11:51 - 2nd Half</t>
+          <t>8:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1165,11 +1165,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11:02 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
         <v>5</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11:51 - 2nd Half</t>
+          <t>8:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1348,32 +1348,32 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11:51 - 2nd Half</t>
+          <t>8:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" t="n">
         <v>5</v>
       </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1409,20 +1409,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11:51 - 2nd Half</t>
+          <t>8:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11:51 - 2nd Half</t>
+          <t>8:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1495,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1531,32 +1531,32 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11:02 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
+        <v>13</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
         <v>9</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11:02 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>11:51 - 2nd Half</t>
+          <t>8:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -1775,14 +1775,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11:51 - 2nd Half</t>
+          <t>8:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -1897,17 +1897,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11:51 - 2nd Half</t>
+          <t>8:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -1958,14 +1958,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11:51 - 2nd Half</t>
+          <t>8:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -1983,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -2080,17 +2080,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11:02 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
         <v>2</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2126,44 +2126,44 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>9</v>
@@ -2187,47 +2187,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" t="n">
         <v>4</v>
       </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>11:51 - 2nd Half</t>
+          <t>8:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>11:02 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -2346,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -2446,11 +2446,11 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>11:51 - 2nd Half</t>
+          <t>8:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I33" t="n">
         <v>19</v>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
@@ -2507,20 +2507,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>11:51 - 2nd Half</t>
+          <t>8:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I34" t="n">
         <v>14</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
@@ -2568,14 +2568,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11:02 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H35" t="n">
+        <v>8</v>
+      </c>
+      <c r="I35" t="n">
         <v>6</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3</v>
       </c>
       <c r="J35" t="n">
         <v>3</v>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11:02 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2873,20 +2873,20 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11:02 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I40" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2934,17 +2934,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11:02 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>6</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -3239,17 +3239,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>11:51 - 2nd Half</t>
+          <t>8:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11:02 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -3407,22 +3407,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11:51 - 2nd Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -3468,22 +3468,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11:02 - 1st Half</t>
+          <t>8:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -3493,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -3651,46 +3651,107 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>Urban Klavzar</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>FLA@VAN</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>7:42 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>Troy Henderson</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>TENN</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>UK@TENN</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H53" t="n">
+      <c r="H54" t="n">
         <v>-2</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3742,7 +3803,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -3755,7 +3816,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -3768,7 +3829,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -3781,7 +3842,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -3794,7 +3855,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -3820,7 +3881,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -616,17 +616,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8:10 - 2nd Half</t>
+          <t>3:09 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20</v>
+      </c>
+      <c r="J3" t="n">
         <v>5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -677,11 +677,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>1:04 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -738,14 +738,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>8:10 - 2nd Half</t>
+          <t>3:09 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" t="n">
         <v>9</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -860,17 +860,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>1:04 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>1:04 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1104,14 +1104,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8:10 - 2nd Half</t>
+          <t>3:09 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>-2</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>1:04 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>8:10 - 2nd Half</t>
+          <t>3:09 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1242,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -1348,32 +1348,32 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8:10 - 2nd Half</t>
+          <t>3:09 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>8:10 - 2nd Half</t>
+          <t>3:09 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>8:10 - 2nd Half</t>
+          <t>3:09 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1495,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -1531,11 +1531,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>1:04 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" t="n">
         <v>12</v>
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -1653,14 +1653,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>1:04 - 1st Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -1699,12 +1699,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>8:10 - 2nd Half</t>
+          <t>3:09 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>4</v>
       </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -1760,12 +1760,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1775,32 +1775,32 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>8:10 - 2nd Half</t>
+          <t>3:09 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>8:10 - 2nd Half</t>
+          <t>3:09 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1907,7 +1907,7 @@
         <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1919,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -1958,20 +1958,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>8:10 - 2nd Half</t>
+          <t>3:09 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -1983,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -2004,47 +2004,47 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:04 - 1st Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -2065,32 +2065,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" t="n">
         <v>3</v>
       </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
         <v>2</v>
@@ -2099,13 +2099,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -2141,17 +2141,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>1:04 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I28" t="n">
         <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
         <v>2</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -2263,17 +2263,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>8:10 - 2nd Half</t>
+          <t>3:09 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K30" t="n">
         <v>2</v>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -2324,14 +2324,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>1:04 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
         <v>4</v>
@@ -2346,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -2446,14 +2446,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>8:10 - 2nd Half</t>
+          <t>3:09 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J33" t="n">
         <v>7</v>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
@@ -2507,17 +2507,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>8:10 - 2nd Half</t>
+          <t>3:09 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="n">
         <v>14</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -2532,7 +2532,7 @@
         <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -2568,20 +2568,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>1:04 - 1st Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J35" t="n">
         <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
@@ -2590,10 +2590,10 @@
         <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -2629,17 +2629,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>1:04 - 1st Half</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -2736,47 +2736,47 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:04 - 1st Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I38" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2816,28 +2816,28 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -2858,47 +2858,47 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
+        <v>10</v>
+      </c>
+      <c r="I40" t="n">
         <v>8</v>
       </c>
-      <c r="I40" t="n">
-        <v>5</v>
-      </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -2934,11 +2934,11 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>1:04 - 1st Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I41" t="n">
         <v>7</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -2980,26 +2980,26 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Andrija Jelavić</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:04 - 1st Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I42" t="n">
         <v>5</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Andrija Jelavić</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3060,13 +3060,13 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -3102,12 +3102,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3121,16 +3121,16 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -3139,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3185,13 +3185,13 @@
         <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -3200,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -3224,47 +3224,47 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>8:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
@@ -3285,35 +3285,35 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Kam Williams</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O47" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -3346,35 +3346,35 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Kam Williams</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:04 - 1st Half</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -3383,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -3407,22 +3407,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>3:09 - 2nd Half</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -3444,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -3468,32 +3468,32 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Ethan Burg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>8:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -3529,32 +3529,32 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:09 - 2nd Half</t>
         </is>
       </c>
       <c r="H51" t="n">
         <v>-1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>1:04 - 1st Half</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -3829,7 +3829,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -3868,7 +3868,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,10 +431,10 @@
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -616,14 +616,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -638,10 +638,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1:04 - 1st Half</t>
+          <t>14:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -738,7 +738,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -774,57 +774,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ja'Kobi Gillespie</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:34 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -835,45 +835,45 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1:04 - 1st Half</t>
+          <t>15:34 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -901,17 +901,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -962,52 +962,52 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Felix Okpara</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" t="n">
         <v>10</v>
       </c>
-      <c r="I9" t="n">
-        <v>5</v>
-      </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -1028,38 +1028,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1:04 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1089,47 +1089,47 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -1140,22 +1140,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1:04 - 1st Half</t>
+          <t>14:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1201,22 +1201,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1226,23 +1226,23 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -1267,52 +1267,52 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -1328,17 +1328,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1348,17 +1348,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -1367,13 +1367,13 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1389,52 +1389,52 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3:09 - 2nd Half</t>
+          <t>15:34 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
         <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1455,38 +1455,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -1495,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -1506,48 +1506,48 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1:04 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>12</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -1567,27 +1567,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1596,28 +1596,28 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1628,42 +1628,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1:04 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -1694,52 +1694,52 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3:09 - 2nd Half</t>
+          <t>14:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -1755,37 +1755,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3:09 - 2nd Half</t>
+          <t>14:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>2</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -1816,40 +1816,40 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:34 - 1st Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1882,47 +1882,47 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1943,47 +1943,47 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3:09 - 2nd Half</t>
+          <t>15:34 - 1st Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -1994,48 +1994,48 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1:04 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -2055,27 +2055,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2084,19 +2084,19 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2126,35 +2126,35 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1:04 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2187,47 +2187,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:34 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2263,32 +2263,32 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2309,39 +2309,39 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1:04 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H31" t="n">
+        <v>17</v>
+      </c>
+      <c r="I31" t="n">
+        <v>12</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
         <v>3</v>
       </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -2360,57 +2360,57 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2431,47 +2431,47 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I33" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -2482,45 +2482,45 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3:09 - 2nd Half</t>
+          <t>14:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I34" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -2543,42 +2543,42 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1:04 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
@@ -2587,13 +2587,13 @@
         <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2614,47 +2614,47 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1:04 - 1st Half</t>
+          <t>15:34 - 1st Half</t>
         </is>
       </c>
       <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
         <v>3</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -2665,57 +2665,57 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I37" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -2726,57 +2726,57 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1:04 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O38" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2797,12 +2797,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2816,28 +2816,28 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
@@ -2848,27 +2848,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2877,28 +2877,28 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -2909,17 +2909,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2934,32 +2934,32 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1:04 - 1st Half</t>
+          <t>14:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I41" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
@@ -2970,42 +2970,42 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1:04 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -3017,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O42" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43">
@@ -3031,39 +3031,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Andrija Jelavić</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:34 - 1st Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3102,38 +3102,38 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -3163,12 +3163,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3182,16 +3182,16 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
@@ -3224,47 +3224,47 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I46" t="n">
+        <v>9</v>
+      </c>
+      <c r="J46" t="n">
         <v>4</v>
       </c>
-      <c r="J46" t="n">
-        <v>3</v>
-      </c>
       <c r="K46" t="n">
         <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -3285,12 +3285,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Kam Williams</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3304,28 +3304,28 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J47" t="n">
         <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
@@ -3346,32 +3346,32 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1:04 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -3380,13 +3380,13 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -3407,35 +3407,35 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>3:09 - 2nd Half</t>
+          <t>14:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -3444,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -3468,29 +3468,29 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -3529,47 +3529,47 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Andrija Jelavić</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>3:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3609,16 +3609,16 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -3651,35 +3651,35 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1:04 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -3712,46 +3712,717 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>Bishop Boswell</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Urban Klavzar</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>FLA@VAN</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>14:16 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Rashad King</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>15:34 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Robert Miller III</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>15:34 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Kam Williams</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2</v>
+      </c>
+      <c r="O58" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>FLA@VAN</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>14:16 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Noah Williamson</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>ALA@OU</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Ethan Burg</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>ALA@OU</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Shawn Phillips Jr.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>MIZ@LSU</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>15:34 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>UK@TENN</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>Troy Henderson</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>TENN</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>UK@TENN</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H54" t="n">
+      <c r="H65" t="n">
         <v>-2</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3803,10 +4474,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3816,7 +4487,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -3829,7 +4500,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -3842,7 +4513,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -3851,27 +4522,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3881,10 +4552,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -799,18 +799,18 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
         <v>6</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>4</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -821,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -860,14 +860,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -906,12 +906,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -921,17 +921,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -967,12 +967,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -982,17 +982,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>15</v>
@@ -1165,11 +1165,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>6</v>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -1226,11 +1226,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1653,17 +1653,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I25" t="n">
         <v>19</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -2080,14 +2080,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -2446,11 +2446,11 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
@@ -2468,10 +2468,10 @@
         <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -2532,7 +2532,7 @@
         <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2822,7 +2822,7 @@
         <v>9</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>2</v>
       </c>
       <c r="O39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -2919,41 +2919,41 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>1</v>
@@ -2980,47 +2980,47 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N42" t="n">
         <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -3041,38 +3041,38 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -3239,20 +3239,20 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -3361,11 +3361,11 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I48" t="n">
         <v>5</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -3605,14 +3605,14 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I52" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J52" t="n">
         <v>3</v>
@@ -3630,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
@@ -3727,17 +3727,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
         <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -3956,38 +3956,38 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I58" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -4017,17 +4017,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4036,28 +4036,28 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -4078,7 +4078,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4097,28 +4097,28 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
@@ -4154,17 +4154,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I61" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
         <v>2</v>
@@ -4176,10 +4176,10 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -4200,38 +4200,38 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
+        <v>10</v>
+      </c>
+      <c r="I62" t="n">
         <v>8</v>
       </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -4276,17 +4276,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I63" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -4295,13 +4295,13 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
         <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
@@ -4322,32 +4322,32 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -4356,13 +4356,13 @@
         <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -4383,32 +4383,32 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Andrija Jelavić</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
@@ -4417,13 +4417,13 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -4444,44 +4444,44 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Andrija Jelavić</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>5</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
         <v>12</v>
@@ -4505,47 +4505,47 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H67" t="n">
         <v>5</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -4566,26 +4566,26 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -4597,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -4627,35 +4627,35 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H69" t="n">
         <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -4688,26 +4688,26 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I70" t="n">
         <v>3</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -4749,32 +4749,32 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -4783,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -4810,29 +4810,29 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H72" t="n">
         <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4847,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -4871,38 +4871,38 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H73" t="n">
         <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -4911,7 +4911,7 @@
         <v>2</v>
       </c>
       <c r="O73" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
@@ -4932,47 +4932,47 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O74" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -5054,22 +5054,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Alex Kovatchev</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -5091,10 +5091,10 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -5115,35 +5115,35 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Kam Williams</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O77" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -5176,35 +5176,35 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Kam Williams</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -5213,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -5237,22 +5237,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -5298,17 +5298,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -5335,10 +5335,10 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -5359,22 +5359,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Sebastian Mack</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -5396,10 +5396,10 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -5420,12 +5420,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Annor Boateng</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5435,20 +5435,20 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -5457,10 +5457,10 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
@@ -5481,26 +5481,26 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
@@ -5542,22 +5542,22 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>Ethan Burg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -5579,10 +5579,10 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -5603,12 +5603,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>3:20 - 1st Half</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -5640,10 +5640,10 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -5664,17 +5664,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5686,10 +5686,10 @@
         <v>-1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -5698,13 +5698,13 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -5725,22 +5725,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>8:13 - 1st Half</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -5762,10 +5762,10 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -5786,17 +5786,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5808,10 +5808,10 @@
         <v>-1</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -5820,13 +5820,13 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -5847,12 +5847,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5862,32 +5862,32 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
@@ -5908,12 +5908,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Troy Henderson</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -5945,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -5969,26 +5969,26 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>Mazi Mosley</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>16:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -5997,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -6009,67 +6009,6 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Mazi Mosley</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>LSU</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>MIZ@LSU</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Halftime</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6121,7 +6060,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -6147,7 +6086,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
@@ -6160,7 +6099,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -6186,7 +6125,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -6199,7 +6138,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -799,7 +799,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -921,11 +921,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
         <v>10</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
         <v>5</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -2553,47 +2553,47 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I35" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J35" t="n">
+        <v>6</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6</v>
+      </c>
+      <c r="L35" t="n">
         <v>4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>4</v>
       </c>
-      <c r="L35" t="n">
-        <v>2</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
       <c r="O35" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -2614,12 +2614,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I36" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J36" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
@@ -2675,35 +2675,35 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -3752,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -3956,47 +3956,47 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>12</v>
       </c>
       <c r="I58" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4039,25 +4039,25 @@
         <v>12</v>
       </c>
       <c r="I59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
@@ -4078,17 +4078,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4106,10 +4106,10 @@
         <v>3</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4158,28 +4158,28 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I61" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -4200,47 +4200,47 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H62" t="n">
         <v>11</v>
       </c>
       <c r="I62" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4276,32 +4276,32 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>11</v>
       </c>
       <c r="I63" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O63" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -4383,35 +4383,35 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H65" t="n">
         <v>10</v>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J65" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
         <v>1</v>
@@ -4420,10 +4420,10 @@
         <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O65" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4466,25 +4466,25 @@
         <v>10</v>
       </c>
       <c r="I66" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J66" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K66" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
@@ -4505,35 +4505,35 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I67" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L67" t="n">
         <v>1</v>
@@ -4542,10 +4542,10 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O67" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
@@ -4566,47 +4566,47 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I68" t="n">
         <v>7</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -4627,47 +4627,47 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H69" t="n">
         <v>7</v>
       </c>
       <c r="I69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>2</v>
       </c>
       <c r="O69" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -5115,47 +5115,47 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -5176,17 +5176,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Kam Williams</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5195,13 +5195,13 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>1</v>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
         <v>15</v>
@@ -5237,35 +5237,35 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Kam Williams</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -5274,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O79" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -5298,22 +5298,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -5359,17 +5359,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -5396,10 +5396,10 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -5420,17 +5420,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -5457,10 +5457,10 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Sebastian Mack</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -5561,7 +5561,7 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -5603,22 +5603,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Annor Boateng</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>9:54 - 2nd Half</t>
+          <t>8:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -6117,27 +6117,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6160,7 +6160,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-17.xlsx
@@ -540,17 +540,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -559,28 +559,28 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -601,17 +601,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -620,28 +620,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -662,17 +662,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -681,28 +681,28 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -723,17 +723,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Labaron Philon Jr.</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -742,28 +742,28 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -784,17 +784,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -803,28 +803,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -845,17 +845,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -864,28 +864,28 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I7" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K7" t="n">
         <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -906,12 +906,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Billy Richmond III</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -925,28 +925,28 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>3</v>
       </c>
-      <c r="N8" t="n">
-        <v>4</v>
-      </c>
       <c r="O8" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -967,17 +967,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -986,14 +986,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
+        <v>12</v>
+      </c>
+      <c r="J9" t="n">
         <v>8</v>
       </c>
-      <c r="J9" t="n">
-        <v>5</v>
-      </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
@@ -1001,13 +1001,13 @@
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1028,17 +1028,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MISS@MSST</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1047,28 +1047,28 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1108,13 +1108,13 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1123,13 +1123,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1413,28 +1413,28 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I16" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1474,28 +1474,28 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1535,28 +1535,28 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -1638,17 +1638,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MISS@MSST</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J20" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -1699,17 +1699,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Felix Okpara</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1718,25 +1718,25 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>27</v>
@@ -1760,17 +1760,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MISS@MSST</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1779,28 +1779,28 @@
         </is>
       </c>
       <c r="H22" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
         <v>6</v>
       </c>
-      <c r="I22" t="n">
-        <v>14</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4</v>
-      </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -1821,17 +1821,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1840,25 +1840,25 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>30</v>
@@ -2187,17 +2187,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2206,14 +2206,14 @@
         </is>
       </c>
       <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
         <v>3</v>
       </c>
-      <c r="I29" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>14</v>
@@ -2243,22 +2243,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2267,28 +2267,28 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O30" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -2309,17 +2309,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MISS@MSST</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2328,28 +2328,28 @@
         </is>
       </c>
       <c r="H31" t="n">
+        <v>17</v>
+      </c>
+      <c r="I31" t="n">
         <v>12</v>
       </c>
-      <c r="I31" t="n">
-        <v>17</v>
-      </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
@@ -2370,17 +2370,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2392,25 +2392,25 @@
         <v>12</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J32" t="n">
         <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -2431,12 +2431,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2450,28 +2450,28 @@
         </is>
       </c>
       <c r="H33" t="n">
+        <v>12</v>
+      </c>
+      <c r="I33" t="n">
         <v>5</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>4</v>
       </c>
-      <c r="J33" t="n">
-        <v>2</v>
-      </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -2492,17 +2492,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MISS@MSST</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2511,13 +2511,13 @@
         </is>
       </c>
       <c r="H34" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" t="n">
         <v>4</v>
       </c>
-      <c r="I34" t="n">
-        <v>2</v>
-      </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -4078,17 +4078,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4097,16 +4097,16 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I60" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>2</v>
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O60" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4158,28 +4158,28 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I61" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J61" t="n">
         <v>6</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
         <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -4200,17 +4200,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4219,28 +4219,28 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O62" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
@@ -4322,17 +4322,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4341,28 +4341,28 @@
         </is>
       </c>
       <c r="H64" t="n">
+        <v>21</v>
+      </c>
+      <c r="I64" t="n">
         <v>18</v>
       </c>
-      <c r="I64" t="n">
-        <v>17</v>
-      </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4402,16 +4402,16 @@
         </is>
       </c>
       <c r="H65" t="n">
+        <v>18</v>
+      </c>
+      <c r="I65" t="n">
         <v>17</v>
       </c>
-      <c r="I65" t="n">
-        <v>12</v>
-      </c>
       <c r="J65" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -4420,10 +4420,10 @@
         <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
@@ -4444,17 +4444,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4463,28 +4463,28 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I66" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J66" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K66" t="n">
         <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
         <v>2</v>
       </c>
       <c r="O66" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4524,28 +4524,28 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
@@ -4749,17 +4749,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4768,28 +4768,28 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I71" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J71" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O71" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
@@ -4810,17 +4810,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4829,16 +4829,16 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I72" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J72" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -4847,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73">
@@ -4932,17 +4932,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4951,28 +4951,28 @@
         </is>
       </c>
       <c r="H74" t="n">
+        <v>15</v>
+      </c>
+      <c r="I74" t="n">
         <v>13</v>
       </c>
-      <c r="I74" t="n">
-        <v>10</v>
-      </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O74" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
@@ -4993,17 +4993,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5012,17 +5012,17 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I75" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J75" t="n">
+        <v>4</v>
+      </c>
+      <c r="K75" t="n">
         <v>3</v>
       </c>
-      <c r="K75" t="n">
-        <v>2</v>
-      </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
@@ -5030,10 +5030,10 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
@@ -9476,7 +9476,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -9485,11 +9485,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -9498,11 +9498,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -9515,7 +9515,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -9524,11 +9524,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -9537,11 +9537,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -9554,10 +9554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
